--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqian/Desktop/ECE1785/Project/ece1785/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3844936F-7AD5-0042-989A-342643FCFEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A27B2-805F-8B47-B8CF-794675258A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="216">
   <si>
     <t>Problem number</t>
   </si>
@@ -67,61 +67,7 @@
     <t>Test_cases_passed</t>
   </si>
   <si>
-    <t>2316</t>
-  </si>
-  <si>
-    <t>Count Unreachable Pairs of Nodes in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>You are given an integer n. There is an undirected graph with n nodes, numbered from 0 to n - 1. You are given a 2D integer array edges where edges[i] = [ai, bi] denotes that there exists an undirected edge connecting nodes ai and bi.
-Return the number of pairs of different nodes that are unreachable from each other.
-  Example 1:
-Input: n = 3, edges = [[0,1],[0,2],[1,2]]
-Output: 0
-Explanation: There are no pairs of nodes that are unreachable from each other. Therefore, we return 0.
-Example 2:
-Input: n = 7, edges = [[0,2],[0,5],[2,4],[1,6],[5,4]]
-Output: 14
-Explanation: There are 14 pairs of nodes that are unreachable from each other:
-[[0,1],[0,3],[0,6],[1,2],[1,3],[1,4],[1,5],[2,3],[2,6],[3,4],[3,5],[3,6],[4,6],[5,6]].
-Therefore, we return 14.
-  Constraints:
-1 &lt;= n &lt;= 105
-0 &lt;= edges.length &lt;= 2 * 105
-edges[i].length == 2
-0 &lt;= ai, bi &lt; n
-ai != bi
-There are no repeated edges.</t>
-  </si>
-  <si>
-    <t>50.7%</t>
-  </si>
-  <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>class Solution:
-    def countPairs(self, n: int, edges: List[List[int]]) -&gt; int:
-        graph = [[] for _ in range(n)]
-        for u, v in edges:
-            graph[u].append(v)
-            graph[v].append(u)
-        visited = [False] * n
-        count = 0
-        def dfs(node):
-            nonlocal count
-            visited[node] = True
-            for neighbor in graph[node]:
-                if not visited[neighbor]:
-                    dfs(neighbor)
-                    count += 1
-        for node in range(n):
-            if not visited[node]:
-                dfs(node)
-        return n * (n - 1) // 2 - count</t>
-  </si>
-  <si>
-    <t>wrong answer</t>
   </si>
   <si>
     <t>None</t>
@@ -1678,9 +1624,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,1355 +1927,1356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="90.5" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="13" max="13" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2">
-        <v>66</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="b">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" s="1">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="b">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H4" s="1">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="b">
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2094</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="1">
+        <v>141</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H7" s="1">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6">
-        <v>2094</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7">
-        <v>141</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="b">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" s="1">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="b">
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" s="1">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G10" t="b">
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="1">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G11" t="b">
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="1">
+        <v>354</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="1">
+        <v>61</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12">
-        <v>354</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
+      <c r="H13" s="1">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13">
-        <v>61</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G14" t="b">
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H14" s="1">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" t="s">
-        <v>22</v>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>49</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="1">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" t="s">
-        <v>22</v>
+      <c r="K15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G16" t="b">
+      <c r="D16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" s="1">
+        <v>1405</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
+      <c r="J16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="b">
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>1405</v>
-      </c>
-      <c r="I17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="H17" s="1">
+        <v>983</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
+      <c r="J17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G18" t="b">
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>983</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="H18" s="1">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
+      <c r="J18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G19" t="b">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="1">
+        <v>292</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
+      <c r="H20" s="1">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N20">
-        <v>292</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="1">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
+      <c r="L21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G22" t="b">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="1">
+        <v>208</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>54</v>
+      <c r="H23" s="1">
+        <v>31</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N23">
-        <v>208</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="A24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G24" t="b">
+      <c r="D24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="1">
+        <v>133</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>31</v>
-      </c>
-      <c r="I24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>54</v>
+      <c r="H25" s="1">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N25">
-        <v>133</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G26" t="b">
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="1">
+        <v>62</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>54</v>
+      <c r="H27" s="1">
+        <v>78</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N27">
-        <v>62</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G28" t="b">
+      <c r="D28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" s="1">
+        <v>31</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="L28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G29" t="b">
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>31</v>
-      </c>
-      <c r="I29" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" t="s">
-        <v>22</v>
+      <c r="J29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G30" t="b">
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="H30" s="1">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" t="s">
-        <v>22</v>
+      <c r="L30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
